--- a/reports/doc_gaps_report.xlsx
+++ b/reports/doc_gaps_report.xlsx
@@ -478,7 +478,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2026-02-17T14:36:21.590750</t>
+          <t>2026-02-17T18:24:17.244978</t>
         </is>
       </c>
     </row>
@@ -581,7 +581,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>{'authentication': 1, 'removed_function': 1, 'database_schema': 1, 'api_endpoint': 1, 'breaking_change': 1, 'signature_change': 1, 'webhook': 1, 'new_function': 1, 'public_function': 1, 'error_handling': 1, 'env_var': 1, 'config_option': 1}</t>
+          <t>{'authentication': 1, 'removed_function': 1, 'database_schema': 1, 'api_endpoint': 1, 'signature_change': 1, 'breaking_change': 1, 'webhook': 1, 'new_function': 1, 'public_function': 1, 'env_var': 1, 'error_handling': 1, 'config_option': 1}</t>
         </is>
       </c>
     </row>
@@ -659,7 +659,7 @@
     <row r="2">
       <c r="A2" s="4" t="inlineStr">
         <is>
-          <t>CODE-0005</t>
+          <t>CODE-0006</t>
         </is>
       </c>
       <c r="B2" s="4" t="inlineStr">
@@ -688,7 +688,7 @@
         </is>
       </c>
       <c r="G2" s="4" t="n">
-        <v>1399</v>
+        <v>908</v>
       </c>
       <c r="H2" s="4" t="inlineStr">
         <is>
@@ -699,12 +699,12 @@
     <row r="3">
       <c r="A3" s="4" t="inlineStr">
         <is>
-          <t>CODE-0013</t>
+          <t>CODE-0526</t>
         </is>
       </c>
       <c r="B3" s="4" t="inlineStr">
         <is>
-          <t>Removed Function: Function removed: print</t>
+          <t>Removed Function: Function removed: _categorize_issue</t>
         </is>
       </c>
       <c r="C3" s="4" t="inlineStr">
@@ -728,23 +728,23 @@
         </is>
       </c>
       <c r="G3" s="4" t="n">
-        <v>79</v>
+        <v>130</v>
       </c>
       <c r="H3" s="4" t="inlineStr">
         <is>
-          <t>BREAKING: Function print was removed. Update documentation and add migration guide.</t>
+          <t>BREAKING: Function _categorize_issue was removed. Update documentation and add migration guide.</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="4" t="inlineStr">
         <is>
-          <t>CODE-0153</t>
+          <t>CODE-0077</t>
         </is>
       </c>
       <c r="B4" s="4" t="inlineStr">
         <is>
-          <t>Database Schema: database_schema: migration</t>
+          <t>Database Schema: database_schema: Migration</t>
         </is>
       </c>
       <c r="C4" s="4" t="inlineStr">
@@ -768,23 +768,23 @@
         </is>
       </c>
       <c r="G4" s="4" t="n">
-        <v>77</v>
+        <v>119</v>
       </c>
       <c r="H4" s="4" t="inlineStr">
         <is>
-          <t>Document database schema change in scripts/fix_everything_now.py. Update data model documentation.</t>
+          <t>Document database schema change in .vscode/docs.code-snippets. Update data model documentation.</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="4" t="inlineStr">
         <is>
-          <t>CODE-0181</t>
+          <t>CODE-0018</t>
         </is>
       </c>
       <c r="B5" s="4" t="inlineStr">
         <is>
-          <t>Api Endpoint: api_endpoint: /webhooks/${2:product}</t>
+          <t>Api Endpoint: api_endpoint: /webhooks</t>
         </is>
       </c>
       <c r="C5" s="4" t="inlineStr">
@@ -808,23 +808,23 @@
         </is>
       </c>
       <c r="G5" s="4" t="n">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="H5" s="4" t="inlineStr">
         <is>
-          <t>Document API endpoint: /webhooks/${2:product}. Include request/response examples, parameters, authentication requirements.</t>
+          <t>Document API endpoint: /webhooks. Include request/response examples, parameters, authentication requirements.</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="4" t="inlineStr">
         <is>
-          <t>CODE-2353</t>
+          <t>CODE-0008</t>
         </is>
       </c>
       <c r="B6" s="4" t="inlineStr">
         <is>
-          <t>Breaking Change: breaking_change: @deprecated</t>
+          <t>Signature Change: Function signature changed: if</t>
         </is>
       </c>
       <c r="C6" s="4" t="inlineStr">
@@ -834,7 +834,7 @@
       </c>
       <c r="D6" s="4" t="inlineStr">
         <is>
-          <t>breaking_change</t>
+          <t>signature_change</t>
         </is>
       </c>
       <c r="E6" s="4" t="inlineStr">
@@ -848,23 +848,23 @@
         </is>
       </c>
       <c r="G6" s="4" t="n">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="H6" s="4" t="inlineStr">
         <is>
-          <t>URGENT: Document breaking change in scripts/gap_detection/code_analyzer.py. Update migration guide with before/after examples.</t>
+          <t>UPDATE REQUIRED: Function if signature changed. Old: (significantGaps &amp;&amp; parseInt(significantGaps[1]) → New: (count &gt; 0). Update documentation and examples.</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="4" t="inlineStr">
         <is>
-          <t>CODE-1340</t>
+          <t>CODE-0457</t>
         </is>
       </c>
       <c r="B7" s="4" t="inlineStr">
         <is>
-          <t>Signature Change: Function signature changed: print</t>
+          <t>Breaking Change: breaking_change: @deprecated</t>
         </is>
       </c>
       <c r="C7" s="4" t="inlineStr">
@@ -874,7 +874,7 @@
       </c>
       <c r="D7" s="4" t="inlineStr">
         <is>
-          <t>signature_change</t>
+          <t>breaking_change</t>
         </is>
       </c>
       <c r="E7" s="4" t="inlineStr">
@@ -888,18 +888,18 @@
         </is>
       </c>
       <c r="G7" s="4" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="H7" s="4" t="inlineStr">
         <is>
-          <t>UPDATE REQUIRED: Function print signature changed. Old: ("✅ GEO Lint: no blocking errors") → New: ("Running seo_geo_optimizer.py with GEO-only mode...\n"). Update documentation and examples.</t>
+          <t>URGENT: Document breaking change in reports/doc_gaps_report.csv. Update migration guide with before/after examples.</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="5" t="inlineStr">
         <is>
-          <t>CODE-0009</t>
+          <t>CODE-0005</t>
         </is>
       </c>
       <c r="B8" s="5" t="inlineStr">
@@ -928,23 +928,23 @@
         </is>
       </c>
       <c r="G8" s="5" t="n">
-        <v>1003</v>
+        <v>764</v>
       </c>
       <c r="H8" s="5" t="inlineStr">
         <is>
-          <t>Update webhook documentation for changes in CLAUDE.md. Include payload examples and event types.</t>
+          <t>Update webhook documentation for changes in .claude/settings.local.json. Include payload examples and event types.</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="5" t="inlineStr">
         <is>
-          <t>CODE-0006</t>
+          <t>CODE-0184</t>
         </is>
       </c>
       <c r="B9" s="5" t="inlineStr">
         <is>
-          <t>New Function: New function: if</t>
+          <t>New Function: New function: processPayment</t>
         </is>
       </c>
       <c r="C9" s="5" t="inlineStr">
@@ -968,23 +968,23 @@
         </is>
       </c>
       <c r="G9" s="5" t="n">
-        <v>352</v>
+        <v>88</v>
       </c>
       <c r="H9" s="5" t="inlineStr">
         <is>
-          <t>Document new function: if. Include parameters, return value, and usage example.</t>
+          <t>Document new function: processPayment. Include parameters, return value, and usage example.</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="5" t="inlineStr">
         <is>
-          <t>CODE-0054</t>
+          <t>CODE-0220</t>
         </is>
       </c>
       <c r="B10" s="5" t="inlineStr">
         <is>
-          <t>Public Function: public_function: analyze_post</t>
+          <t>Public Function: public_function: WebhookManager</t>
         </is>
       </c>
       <c r="C10" s="5" t="inlineStr">
@@ -1008,23 +1008,23 @@
         </is>
       </c>
       <c r="G10" s="5" t="n">
-        <v>174</v>
+        <v>51</v>
       </c>
       <c r="H10" s="5" t="inlineStr">
         <is>
-          <t>Consider documenting public API: analyze_post. Include parameters, return value, and example usage.</t>
+          <t>Consider documenting public API: WebhookManager. Include parameters, return value, and example usage.</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="5" t="inlineStr">
         <is>
-          <t>CODE-0794</t>
+          <t>CODE-0021</t>
         </is>
       </c>
       <c r="B11" s="5" t="inlineStr">
         <is>
-          <t>Error Handling: error_handling: 400</t>
+          <t>Env Var: env_var: API_KEY</t>
         </is>
       </c>
       <c r="C11" s="5" t="inlineStr">
@@ -1034,12 +1034,12 @@
       </c>
       <c r="D11" s="5" t="inlineStr">
         <is>
-          <t>error_handling</t>
+          <t>env_var</t>
         </is>
       </c>
       <c r="E11" s="5" t="inlineStr">
         <is>
-          <t>how-to</t>
+          <t>reference</t>
         </is>
       </c>
       <c r="F11" s="5" t="inlineStr">
@@ -1048,23 +1048,23 @@
         </is>
       </c>
       <c r="G11" s="5" t="n">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="H11" s="5" t="inlineStr">
         <is>
-          <t>Document new error type: 400. Include cause, solution, and error code.</t>
+          <t>Add environment variable API_KEY to configuration reference. Include default value, description, and examples.</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="5" t="inlineStr">
         <is>
-          <t>CODE-0665</t>
+          <t>CODE-0183</t>
         </is>
       </c>
       <c r="B12" s="5" t="inlineStr">
         <is>
-          <t>Env Var: env_var: API_KEY</t>
+          <t>Error Handling: error_handling: 401</t>
         </is>
       </c>
       <c r="C12" s="5" t="inlineStr">
@@ -1074,12 +1074,12 @@
       </c>
       <c r="D12" s="5" t="inlineStr">
         <is>
-          <t>env_var</t>
+          <t>error_handling</t>
         </is>
       </c>
       <c r="E12" s="5" t="inlineStr">
         <is>
-          <t>reference</t>
+          <t>how-to</t>
         </is>
       </c>
       <c r="F12" s="5" t="inlineStr">
@@ -1088,11 +1088,11 @@
         </is>
       </c>
       <c r="G12" s="5" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H12" s="5" t="inlineStr">
         <is>
-          <t>Add environment variable API_KEY to configuration reference. Include default value, description, and examples.</t>
+          <t>Document new error type: 401. Include cause, solution, and error code.</t>
         </is>
       </c>
     </row>
@@ -1128,7 +1128,7 @@
         </is>
       </c>
       <c r="G13" s="5" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="H13" s="5" t="inlineStr">
         <is>
@@ -1210,7 +1210,7 @@
     <row r="2">
       <c r="A2" s="4" t="inlineStr">
         <is>
-          <t>CODE-0005</t>
+          <t>CODE-0006</t>
         </is>
       </c>
       <c r="B2" s="4" t="inlineStr">
@@ -1239,7 +1239,7 @@
         </is>
       </c>
       <c r="G2" s="4" t="n">
-        <v>1399</v>
+        <v>908</v>
       </c>
       <c r="H2" s="4" t="inlineStr">
         <is>
@@ -1250,12 +1250,12 @@
     <row r="3">
       <c r="A3" s="4" t="inlineStr">
         <is>
-          <t>CODE-0013</t>
+          <t>CODE-0526</t>
         </is>
       </c>
       <c r="B3" s="4" t="inlineStr">
         <is>
-          <t>Removed Function: Function removed: print</t>
+          <t>Removed Function: Function removed: _categorize_issue</t>
         </is>
       </c>
       <c r="C3" s="4" t="inlineStr">
@@ -1279,23 +1279,23 @@
         </is>
       </c>
       <c r="G3" s="4" t="n">
-        <v>79</v>
+        <v>130</v>
       </c>
       <c r="H3" s="4" t="inlineStr">
         <is>
-          <t>BREAKING: Function print was removed. Update documentation and add migration guide.</t>
+          <t>BREAKING: Function _categorize_issue was removed. Update documentation and add migration guide.</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="4" t="inlineStr">
         <is>
-          <t>CODE-0153</t>
+          <t>CODE-0077</t>
         </is>
       </c>
       <c r="B4" s="4" t="inlineStr">
         <is>
-          <t>Database Schema: database_schema: migration</t>
+          <t>Database Schema: database_schema: Migration</t>
         </is>
       </c>
       <c r="C4" s="4" t="inlineStr">
@@ -1319,23 +1319,23 @@
         </is>
       </c>
       <c r="G4" s="4" t="n">
-        <v>77</v>
+        <v>119</v>
       </c>
       <c r="H4" s="4" t="inlineStr">
         <is>
-          <t>Document database schema change in scripts/fix_everything_now.py. Update data model documentation.</t>
+          <t>Document database schema change in .vscode/docs.code-snippets. Update data model documentation.</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="4" t="inlineStr">
         <is>
-          <t>CODE-0181</t>
+          <t>CODE-0018</t>
         </is>
       </c>
       <c r="B5" s="4" t="inlineStr">
         <is>
-          <t>Api Endpoint: api_endpoint: /webhooks/${2:product}</t>
+          <t>Api Endpoint: api_endpoint: /webhooks</t>
         </is>
       </c>
       <c r="C5" s="4" t="inlineStr">
@@ -1359,23 +1359,23 @@
         </is>
       </c>
       <c r="G5" s="4" t="n">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="H5" s="4" t="inlineStr">
         <is>
-          <t>Document API endpoint: /webhooks/${2:product}. Include request/response examples, parameters, authentication requirements.</t>
+          <t>Document API endpoint: /webhooks. Include request/response examples, parameters, authentication requirements.</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="4" t="inlineStr">
         <is>
-          <t>CODE-2353</t>
+          <t>CODE-0008</t>
         </is>
       </c>
       <c r="B6" s="4" t="inlineStr">
         <is>
-          <t>Breaking Change: breaking_change: @deprecated</t>
+          <t>Signature Change: Function signature changed: if</t>
         </is>
       </c>
       <c r="C6" s="4" t="inlineStr">
@@ -1385,7 +1385,7 @@
       </c>
       <c r="D6" s="4" t="inlineStr">
         <is>
-          <t>breaking_change</t>
+          <t>signature_change</t>
         </is>
       </c>
       <c r="E6" s="4" t="inlineStr">
@@ -1399,23 +1399,23 @@
         </is>
       </c>
       <c r="G6" s="4" t="n">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="H6" s="4" t="inlineStr">
         <is>
-          <t>URGENT: Document breaking change in scripts/gap_detection/code_analyzer.py. Update migration guide with before/after examples.</t>
+          <t>UPDATE REQUIRED: Function if signature changed. Old: (significantGaps &amp;&amp; parseInt(significantGaps[1]) → New: (count &gt; 0). Update documentation and examples.</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="4" t="inlineStr">
         <is>
-          <t>CODE-1340</t>
+          <t>CODE-0457</t>
         </is>
       </c>
       <c r="B7" s="4" t="inlineStr">
         <is>
-          <t>Signature Change: Function signature changed: print</t>
+          <t>Breaking Change: breaking_change: @deprecated</t>
         </is>
       </c>
       <c r="C7" s="4" t="inlineStr">
@@ -1425,7 +1425,7 @@
       </c>
       <c r="D7" s="4" t="inlineStr">
         <is>
-          <t>signature_change</t>
+          <t>breaking_change</t>
         </is>
       </c>
       <c r="E7" s="4" t="inlineStr">
@@ -1439,11 +1439,11 @@
         </is>
       </c>
       <c r="G7" s="4" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="H7" s="4" t="inlineStr">
         <is>
-          <t>UPDATE REQUIRED: Function print signature changed. Old: ("✅ GEO Lint: no blocking errors") → New: ("Running seo_geo_optimizer.py with GEO-only mode...\n"). Update documentation and examples.</t>
+          <t>URGENT: Document breaking change in reports/doc_gaps_report.csv. Update migration guide with before/after examples.</t>
         </is>
       </c>
     </row>
@@ -1481,7 +1481,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>CODE-0005</t>
+          <t>CODE-0006</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -1498,12 +1498,12 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>CODE-0013</t>
+          <t>CODE-0526</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Removed Function: Function removed: print</t>
+          <t>Removed Function: Function removed: _categorize_issue</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -1515,12 +1515,12 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>CODE-0153</t>
+          <t>CODE-0077</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Database Schema: database_schema: migration</t>
+          <t>Database Schema: database_schema: Migration</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -1532,12 +1532,12 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>CODE-0181</t>
+          <t>CODE-0018</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Api Endpoint: api_endpoint: /webhooks/${2:product}</t>
+          <t>Api Endpoint: api_endpoint: /webhooks</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -1549,12 +1549,12 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>CODE-2353</t>
+          <t>CODE-0008</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Breaking Change: breaking_change: @deprecated</t>
+          <t>Signature Change: Function signature changed: if</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -1566,12 +1566,12 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>CODE-1340</t>
+          <t>CODE-0457</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Signature Change: Function signature changed: print</t>
+          <t>Breaking Change: breaking_change: @deprecated</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -1583,7 +1583,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>CODE-0009</t>
+          <t>CODE-0005</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1600,12 +1600,12 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>CODE-0006</t>
+          <t>CODE-0184</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>New Function: New function: if</t>
+          <t>New Function: New function: processPayment</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -1617,12 +1617,12 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>CODE-0054</t>
+          <t>CODE-0220</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Public Function: public_function: analyze_post</t>
+          <t>Public Function: public_function: WebhookManager</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -1634,12 +1634,12 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>CODE-0794</t>
+          <t>CODE-0021</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Error Handling: error_handling: 400</t>
+          <t>Env Var: env_var: API_KEY</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
